--- a/facturas/2025/ENERO/factura_ABONOS ALONSO_2186.xlsx
+++ b/facturas/2025/ENERO/factura_ABONOS ALONSO_2186.xlsx
@@ -49,7 +49,7 @@
     <t>FACTURA:</t>
   </si>
   <si>
-    <t>25/25</t>
+    <t>42/25</t>
   </si>
   <si>
     <t>C/ NEPTUNO 22 - NAVE</t>
